--- a/data/Palena.xlsx
+++ b/data/Palena.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
